--- a/xlsx/有线电视_intext.xlsx
+++ b/xlsx/有线电视_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>有线电视</t>
   </si>
@@ -29,7 +29,7 @@
     <t>香港有线电视</t>
   </si>
   <si>
-    <t>政策_政策_美國_有线电视</t>
+    <t>政策_政策_美国_有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
@@ -41,15 +41,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BB%B8%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>同軸電纜</t>
+    <t>同轴电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E8%BD%B4%E7%94%B5%E7%BC%86</t>
   </si>
   <si>
-    <t>同轴电缆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E8%B4%A8</t>
   </si>
   <si>
@@ -71,7 +68,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線電視</t>
+    <t>无线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%AB%E6%98%9F%E7%94%B5%E8%A7%86</t>
@@ -155,7 +152,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AF%93%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>公寓大廈</t>
+    <t>公寓大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BE%E5%A4%A7%E5%99%A8</t>
@@ -164,9 +161,6 @@
     <t>放大器</t>
   </si>
   <si>
-    <t>香港有線電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%86%E9%A2%91%E7%82%B9%E6%92%AD</t>
   </si>
   <si>
@@ -218,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E9%9B%BB%E4%BF%A1%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>新加坡電信有限公司</t>
+    <t>新加坡电信有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IPTV</t>
@@ -236,13 +230,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%BA%E7%81%A3%E9%9B%BB%E8%A6%96%E5%8F%B2</t>
   </si>
   <si>
-    <t>臺灣電視史</t>
+    <t>台湾电视史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%9B%9B%E5%8F%B0</t>
@@ -260,19 +254,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E8%A6%96</t>
   </si>
   <si>
-    <t>台視</t>
+    <t>台视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%A6%96</t>
   </si>
   <si>
-    <t>中視</t>
+    <t>中视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E8%A6%96</t>
   </si>
   <si>
-    <t>華視</t>
+    <t>华视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8</t>
@@ -302,37 +296,34 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>衛星電視</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>中華民國政府</t>
+    <t>中华民国政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96%E6%B3%95</t>
   </si>
   <si>
-    <t>廣播電視法</t>
+    <t>广播电视法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E7%B7%9A%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96%E6%B3%95</t>
   </si>
   <si>
-    <t>有線廣播電視法</t>
+    <t>有线广播电视法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E6%96%B0%E8%81%9E%E5%B1%80</t>
   </si>
   <si>
-    <t>行政院新聞局</t>
+    <t>行政院新闻局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%98%9F%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96%E6%B3%95</t>
   </si>
   <si>
-    <t>衛星廣播電視法</t>
+    <t>卫星广播电视法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%9A%86%E5%B8%82</t>
@@ -344,19 +335,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E9%9A%86%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>吉隆有線電視</t>
+    <t>吉隆有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%85%B3%E5%B0%BE%E9%A3%AF%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>腳尾飯事件</t>
+    <t>脚尾饭事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%81%9E%E8%87%AA%E7%94%B1</t>
   </si>
   <si>
-    <t>新聞自由</t>
+    <t>新闻自由</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF</t>
@@ -368,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%97%E7%9A%84%E6%98%A0%E8%81%B2</t>
   </si>
   <si>
-    <t>麗的映聲</t>
+    <t>丽的映声</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DSL</t>
@@ -380,70 +371,67 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%BA%96</t>
   </si>
   <si>
-    <t>光纖</t>
+    <t>光纤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Now%E5%AF%AC%E9%A0%BB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>Now寬頻電視</t>
+    <t>Now宽频电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%AF%AC%E9%A0%BBbbTV</t>
   </si>
   <si>
-    <t>香港寬頻bbTV</t>
+    <t>香港宽频bbTV</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E6%94%B6%E8%B2%BB%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>無線收費電視</t>
+    <t>无线收费电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A8%98%E7%92%B0%E7%90%83%E9%9B%BB%E8%A8%8A</t>
   </si>
   <si>
-    <t>和記環球電訊</t>
+    <t>和记环球电讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%85%AC%E5%85%B1%E5%A4%A9%E7%B7%9A%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>澳門公共天線公司</t>
+    <t>澳门公共天线公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%B9%A3</t>
   </si>
   <si>
-    <t>澳門幣</t>
+    <t>澳门币</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%9B%9E%E6%AD%B8</t>
   </si>
   <si>
-    <t>澳門回歸</t>
-  </si>
-  <si>
-    <t>澳門有線電視</t>
+    <t>澳门回归</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E5%BB%A3%E6%92%AD%E9%9B%BB%E8%A6%96%E8%82%A1%E4%BB%BD%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>澳門廣播電視股份有限公司</t>
+    <t>澳门广播电视股份有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E6%BE%B3%E9%96%80%E5%85%AC%E5%85%B1%E5%A4%A9%E7%B7%9A%E8%A8%8A%E8%99%9F%E4%B8%AD%E6%96%B7%E4%BA%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>2008年澳門公共天線訊號中斷事件</t>
+    <t>2008年澳门公共天线讯号中断事件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%98%9F%E5%82%B3%E8%A8%8A</t>
   </si>
   <si>
-    <t>廣星傳訊</t>
+    <t>广星传讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B9%E4%BB%94</t>
@@ -455,13 +443,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%B9%E5%BB%A3%E6%92%AD%E5%BD%B1%E8%A6%96%E5%82%B3%E5%AA%92%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>南方廣播影視傳媒集團</t>
+    <t>南方广播影视传媒集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E6%95%B8%E7%A2%BC%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96%E5%BB%A3%E6%92%AD</t>
   </si>
   <si>
-    <t>香港數碼地面電視廣播</t>
+    <t>香港数码地面电视广播</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%B8%AD%E5%A4%AE%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -485,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/CGTN_(%E9%A0%BB%E9%81%93)</t>
   </si>
   <si>
-    <t>CGTN (頻道)</t>
+    <t>CGTN (频道)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%95%99%E8%82%B2%E7%94%B5%E8%A7%86%E5%8F%B0</t>
@@ -503,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%A0%E4%B8%89%E8%A7%92%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>珠三角地區</t>
+    <t>珠三角地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%A4%AA6%E5%8F%B7</t>
@@ -539,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9D%A2%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>地面電視</t>
+    <t>地面电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%80%E6%94%BE%E5%BC%8F%E7%9B%AE%E5%BD%95</t>
@@ -551,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E9%9B%BB%E4%BF%A1</t>
   </si>
   <si>
-    <t>Template talk-電信</t>
+    <t>Template talk-电信</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E4%BF%A1</t>
@@ -581,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A1%9B%E6%98%9F</t>
   </si>
   <si>
-    <t>通訊衛星</t>
+    <t>通讯卫星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%BD%91%E7%BB%9C</t>
@@ -605,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%B3%E7%9C%9F</t>
   </si>
   <si>
-    <t>傳真</t>
+    <t>传真</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Heliograph</t>
@@ -629,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%9C%BE%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>大眾媒體</t>
+    <t>大众媒体</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/History_of_mobile_phones</t>
@@ -641,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>光通訊</t>
+    <t>光通讯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Semaphore_line</t>
@@ -707,25 +695,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E5%BA%95%E9%9B%BB%E7%BA%9C</t>
   </si>
   <si>
-    <t>海底電纜</t>
+    <t>海底电缆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E6%9C%83%E8%AD%B0</t>
   </si>
   <si>
-    <t>視訊會議</t>
+    <t>视讯会议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E8%A8%8A%E9%9B%BB%E8%A9%B1</t>
   </si>
   <si>
-    <t>視訊電話</t>
+    <t>视讯电话</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BE%B7%E6%B8%A9%C2%B7%E9%9C%8D%E5%8D%8E%E5%BE%B7%C2%B7%E9%98%BF%E5%A7%86%E6%96%AF%E7%89%B9%E6%9C%97</t>
@@ -761,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%A0%93%C2%B7%E7%91%9F%E5%A4%AB</t>
   </si>
   <si>
-    <t>文頓·瑟夫</t>
+    <t>文顿·瑟夫</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Claude_Chappe</t>
@@ -779,13 +767,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E7%BE%85%C2%B7%E6%B3%95%E6%81%A9%E6%96%AF%E6%B2%83%E6%96%AF</t>
   </si>
   <si>
-    <t>費羅·法恩斯沃斯</t>
+    <t>费罗·法恩斯沃斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E4%BF%A1%E9%81%94</t>
   </si>
   <si>
-    <t>范信達</t>
+    <t>范信达</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Elisha_Gray</t>
@@ -845,7 +833,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E6%8B%93%E6%92%B2</t>
   </si>
   <si>
-    <t>網絡拓撲</t>
+    <t>网络拓扑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Telecommunications_link</t>
@@ -875,19 +863,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E5%B0%8E%E7%BA%96%E7%B6%AD</t>
   </si>
   <si>
-    <t>光導纖維</t>
+    <t>光导纤维</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E9%9B%BB%E9%A0%BB%E8%AD%9C</t>
   </si>
   <si>
-    <t>無線電頻譜</t>
+    <t>无线电频谱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A9%B1%E7%B7%9A</t>
   </si>
   <si>
-    <t>電話線</t>
+    <t>电话线</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%B7%AF%E4%BA%A4%E6%8D%A2</t>
@@ -899,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%8C%85%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>封包交換</t>
+    <t>封包交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E4%BF%A1%E4%BA%A4%E6%8F%9B</t>
   </si>
   <si>
-    <t>電信交換</t>
+    <t>电信交换</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E4%BA%A4%E6%8F%9B%E5%99%A8</t>
   </si>
   <si>
-    <t>網路交換器</t>
+    <t>网路交换器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E8%B7%AF%E5%A4%8D%E7%94%A8</t>
@@ -995,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISDN</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%80%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>區域網路</t>
+    <t>区域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E5%8A%A8%E7%94%B5%E8%AF%9D</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E4%B8%80%E4%BB%A3%E7%B6%B2%E7%B5%A1</t>
   </si>
   <si>
-    <t>下一代網絡</t>
+    <t>下一代网络</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/NPL_network</t>
@@ -1037,19 +1025,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E6%92%AD%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>廣播聯播網</t>
+    <t>广播联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A%E8%A3%9D%E7%BD%AE</t>
   </si>
   <si>
-    <t>通訊裝置</t>
+    <t>通讯装置</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E8%81%AF%E6%92%AD%E7%B6%B2</t>
   </si>
   <si>
-    <t>電視聯播網</t>
+    <t>电视联播网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Telex</t>
@@ -1061,25 +1049,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E5%9F%9F%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>廣域網路</t>
+    <t>广域网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線網路</t>
+    <t>无线网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E8%B3%87%E8%A8%8A%E7%B6%B2</t>
   </si>
   <si>
-    <t>全球資訊網</t>
+    <t>全球资讯网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1091,7 +1079,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1578,7 +1566,7 @@
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -1604,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
         <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -1633,10 +1621,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>92</v>
@@ -1662,10 +1650,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -1691,10 +1679,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>6</v>
@@ -1720,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -1749,10 +1737,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>6</v>
@@ -1778,10 +1766,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>6</v>
@@ -1807,10 +1795,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -1836,10 +1824,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1865,10 +1853,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1894,10 +1882,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1923,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1952,10 +1940,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1981,10 +1969,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2010,10 +1998,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>3</v>
@@ -2039,10 +2027,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2068,10 +2056,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2097,10 +2085,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>2</v>
@@ -2126,10 +2114,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>10</v>
@@ -2158,7 +2146,7 @@
         <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -2184,10 +2172,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2213,10 +2201,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2242,10 +2230,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2271,10 +2259,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -2300,10 +2288,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F30" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G30" t="n">
         <v>2</v>
@@ -2329,10 +2317,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -2358,10 +2346,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G32" t="n">
         <v>8</v>
@@ -2387,10 +2375,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -2416,10 +2404,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2445,10 +2433,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -2474,10 +2462,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F36" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2503,10 +2491,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2532,10 +2520,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G38" t="n">
         <v>11</v>
@@ -2561,10 +2549,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F39" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2590,10 +2578,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F40" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2619,10 +2607,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2648,10 +2636,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2677,10 +2665,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F43" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2706,10 +2694,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2735,10 +2723,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G45" t="n">
         <v>12</v>
@@ -2764,10 +2752,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2793,10 +2781,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G47" t="n">
         <v>2</v>
@@ -2822,10 +2810,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="G48" t="n">
         <v>5</v>
@@ -2851,10 +2839,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>5</v>
@@ -2880,10 +2868,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>4</v>
@@ -2909,10 +2897,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>2</v>
@@ -2938,10 +2926,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>3</v>
@@ -2967,10 +2955,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2996,10 +2984,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3025,10 +3013,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3054,10 +3042,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3083,10 +3071,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3112,10 +3100,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>15</v>
@@ -3141,10 +3129,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3173,7 +3161,7 @@
         <v>2</v>
       </c>
       <c r="F60" t="s">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3199,10 +3187,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3228,10 +3216,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>3</v>
@@ -3257,10 +3245,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>2</v>
@@ -3286,10 +3274,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3315,10 +3303,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3344,10 +3332,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3373,10 +3361,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>4</v>
@@ -3402,10 +3390,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3431,10 +3419,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3463,7 +3451,7 @@
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>6</v>
       </c>
       <c r="G70" t="n">
         <v>4</v>
@@ -3489,10 +3477,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3518,10 +3506,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3547,10 +3535,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3576,10 +3564,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3605,10 +3593,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3634,10 +3622,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3663,10 +3651,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3692,10 +3680,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>3</v>
@@ -3721,10 +3709,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3750,10 +3738,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3779,10 +3767,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3808,10 +3796,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3837,10 +3825,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3866,10 +3854,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3895,10 +3883,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3924,10 +3912,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3953,10 +3941,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3982,10 +3970,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4011,10 +3999,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4040,10 +4028,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4069,10 +4057,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>3</v>
@@ -4098,10 +4086,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4127,10 +4115,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4156,10 +4144,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4185,10 +4173,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4214,10 +4202,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>2</v>
@@ -4243,10 +4231,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>2</v>
@@ -4272,10 +4260,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4301,10 +4289,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -4330,10 +4318,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4359,10 +4347,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4388,10 +4376,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4417,10 +4405,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4446,10 +4434,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4475,10 +4463,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4504,10 +4492,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4533,10 +4521,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4562,10 +4550,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4591,10 +4579,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4620,10 +4608,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4649,10 +4637,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4678,10 +4666,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4707,10 +4695,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4736,10 +4724,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4765,10 +4753,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4794,10 +4782,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4823,10 +4811,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4852,10 +4840,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4881,10 +4869,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4910,10 +4898,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4939,10 +4927,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4968,10 +4956,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4997,10 +4985,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5026,10 +5014,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5055,10 +5043,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5084,10 +5072,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5113,10 +5101,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5142,10 +5130,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5171,10 +5159,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5200,10 +5188,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5229,10 +5217,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5258,10 +5246,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5287,10 +5275,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5316,10 +5304,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>2</v>
@@ -5345,10 +5333,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5374,10 +5362,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -5403,10 +5391,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5432,10 +5420,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5461,10 +5449,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5490,10 +5478,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5519,10 +5507,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5548,10 +5536,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5577,10 +5565,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5606,10 +5594,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s">
         <v>11</v>
-      </c>
-      <c r="F144" t="s">
-        <v>12</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5635,10 +5623,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5664,10 +5652,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5693,10 +5681,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5722,10 +5710,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5751,10 +5739,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5780,10 +5768,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5809,10 +5797,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5838,10 +5826,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5867,10 +5855,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5896,10 +5884,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5925,10 +5913,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5954,10 +5942,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5983,10 +5971,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6012,10 +6000,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6041,10 +6029,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6070,10 +6058,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6099,10 +6087,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6128,10 +6116,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6157,10 +6145,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6186,10 +6174,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6215,10 +6203,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6244,10 +6232,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6273,10 +6261,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6302,10 +6290,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6331,10 +6319,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6360,10 +6348,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6389,10 +6377,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6418,10 +6406,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6447,10 +6435,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6476,10 +6464,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6505,10 +6493,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6534,10 +6522,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6563,10 +6551,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6592,10 +6580,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6621,10 +6609,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6650,10 +6638,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6679,10 +6667,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6708,10 +6696,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>

--- a/xlsx/有线电视_intext.xlsx
+++ b/xlsx/有线电视_intext.xlsx
@@ -29,7 +29,7 @@
     <t>香港有线电视</t>
   </si>
   <si>
-    <t>政策_政策_美國_有线电视</t>
+    <t>体育运动_体育运动_大众媒体_有线电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E6%9C%89%E7%B7%9A%E9%9B%BB%E8%A6%96</t>
